--- a/Team-Data/2008-09/2-27-2008-09.xlsx
+++ b/Team-Data/2008-09/2-27-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
         <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>0.569</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -687,16 +754,16 @@
         <v>78.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M2" t="n">
         <v>20.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.365</v>
+        <v>0.369</v>
       </c>
       <c r="O2" t="n">
         <v>19.1</v>
@@ -711,13 +778,13 @@
         <v>10.6</v>
       </c>
       <c r="S2" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T2" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U2" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V2" t="n">
         <v>13.1</v>
@@ -732,19 +799,19 @@
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA2" t="n">
         <v>20.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -759,13 +826,13 @@
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -774,13 +841,13 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
         <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -789,19 +856,19 @@
         <v>22</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT2" t="n">
         <v>24</v>
       </c>
       <c r="AU2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
         <v>18</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -863,70 +930,70 @@
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
         <v>77.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.395</v>
+        <v>0.39</v>
       </c>
       <c r="O3" t="n">
         <v>20.2</v>
       </c>
       <c r="P3" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.773</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
         <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.9</v>
       </c>
       <c r="W3" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
         <v>22.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.8</v>
+        <v>101.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>2</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -953,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="AM3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AS3" t="n">
         <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
@@ -983,13 +1050,13 @@
         <v>27</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY3" t="n">
         <v>13</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -1030,46 +1097,46 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="n">
         <v>35</v>
       </c>
       <c r="G4" t="n">
-        <v>0.407</v>
+        <v>0.397</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="J4" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L4" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M4" t="n">
         <v>15.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.369</v>
+        <v>0.366</v>
       </c>
       <c r="O4" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P4" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.739</v>
+        <v>0.738</v>
       </c>
       <c r="R4" t="n">
         <v>10.8</v>
@@ -1078,16 +1145,16 @@
         <v>28.7</v>
       </c>
       <c r="T4" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="U4" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V4" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
         <v>4.8</v>
@@ -1096,22 +1163,22 @@
         <v>6.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.7</v>
+        <v>92.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>21</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1138,7 +1205,7 @@
         <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
         <v>25</v>
@@ -1159,7 +1226,7 @@
         <v>25</v>
       </c>
       <c r="AU4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV4" t="n">
         <v>25</v>
@@ -1168,7 +1235,7 @@
         <v>16</v>
       </c>
       <c r="AX4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1183,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -1215,43 +1282,43 @@
         <v>58</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" t="n">
-        <v>0.431</v>
+        <v>0.448</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.451</v>
+        <v>0.453</v>
       </c>
       <c r="L5" t="n">
         <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.377</v>
+        <v>0.379</v>
       </c>
       <c r="O5" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P5" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.789</v>
+        <v>0.792</v>
       </c>
       <c r="R5" t="n">
         <v>12</v>
@@ -1263,10 +1330,10 @@
         <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1275,7 +1342,7 @@
         <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
         <v>21.8</v>
@@ -1284,49 +1351,49 @@
         <v>20.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.6</v>
+        <v>100.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.8</v>
+        <v>-1.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM5" t="n">
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1344,16 +1411,16 @@
         <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
         <v>5</v>
       </c>
       <c r="AY5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
@@ -1362,7 +1429,7 @@
         <v>20</v>
       </c>
       <c r="BB5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC5" t="n">
         <v>18</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -1397,22 +1464,22 @@
         <v>56</v>
       </c>
       <c r="E6" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>0.804</v>
+        <v>0.786</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="J6" t="n">
-        <v>78.5</v>
+        <v>78.2</v>
       </c>
       <c r="K6" t="n">
         <v>0.471</v>
@@ -1421,22 +1488,22 @@
         <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.387</v>
+        <v>0.386</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R6" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="S6" t="n">
         <v>31</v>
@@ -1448,37 +1515,37 @@
         <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="W6" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
         <v>5.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
         <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
         <v>2</v>
@@ -1487,61 +1554,61 @@
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
         <v>4</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR6" t="n">
         <v>20</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>16</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU6" t="n">
         <v>24</v>
       </c>
       <c r="AV6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX6" t="n">
         <v>4</v>
       </c>
       <c r="AY6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ6" t="n">
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="n">
         <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>0.603</v>
+        <v>0.596</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1594,25 +1661,25 @@
         <v>38.1</v>
       </c>
       <c r="J7" t="n">
-        <v>83</v>
+        <v>82.8</v>
       </c>
       <c r="K7" t="n">
         <v>0.46</v>
       </c>
       <c r="L7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M7" t="n">
         <v>19.3</v>
       </c>
       <c r="N7" t="n">
-        <v>0.347</v>
+        <v>0.35</v>
       </c>
       <c r="O7" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P7" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q7" t="n">
         <v>0.8169999999999999</v>
@@ -1621,19 +1688,19 @@
         <v>11.1</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U7" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V7" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W7" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X7" t="n">
         <v>5.5</v>
@@ -1645,28 +1712,28 @@
         <v>19.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="AC7" t="n">
         <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1684,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
         <v>23</v>
@@ -1696,25 +1763,25 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT7" t="n">
         <v>6</v>
       </c>
-      <c r="AT7" t="n">
-        <v>4</v>
-      </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
         <v>7</v>
@@ -1723,10 +1790,10 @@
         <v>3</v>
       </c>
       <c r="BA7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -1758,43 +1825,43 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" t="n">
         <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>0.661</v>
+        <v>0.655</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="J8" t="n">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
       <c r="L8" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
         <v>17.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.363</v>
+        <v>0.367</v>
       </c>
       <c r="O8" t="n">
         <v>23.1</v>
       </c>
       <c r="P8" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="Q8" t="n">
         <v>0.756</v>
@@ -1803,43 +1870,43 @@
         <v>10.6</v>
       </c>
       <c r="S8" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T8" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U8" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V8" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="W8" t="n">
         <v>8.9</v>
       </c>
       <c r="X8" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z8" t="n">
         <v>22.7</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.1</v>
+        <v>103.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
         <v>6</v>
@@ -1851,22 +1918,22 @@
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,19 +1942,19 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR8" t="n">
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT8" t="n">
         <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>28</v>
@@ -1899,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ8" t="n">
         <v>25</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="n">
         <v>29</v>
       </c>
       <c r="G9" t="n">
-        <v>0.491</v>
+        <v>0.482</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1958,7 +2025,7 @@
         <v>35.9</v>
       </c>
       <c r="J9" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K9" t="n">
         <v>0.453</v>
@@ -1967,10 +2034,10 @@
         <v>4.6</v>
       </c>
       <c r="M9" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O9" t="n">
         <v>16.6</v>
@@ -1985,22 +2052,22 @@
         <v>10.8</v>
       </c>
       <c r="S9" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T9" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U9" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V9" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="W9" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y9" t="n">
         <v>4</v>
@@ -2009,19 +2076,19 @@
         <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB9" t="n">
         <v>93</v>
       </c>
       <c r="AC9" t="n">
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>16</v>
@@ -2030,19 +2097,19 @@
         <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
         <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM9" t="n">
         <v>28</v>
@@ -2057,10 +2124,10 @@
         <v>28</v>
       </c>
       <c r="AQ9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS9" t="n">
         <v>16</v>
@@ -2081,10 +2148,10 @@
         <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA9" t="n">
         <v>26</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" t="n">
-        <v>0.345</v>
+        <v>0.351</v>
       </c>
       <c r="H10" t="n">
         <v>48.6</v>
@@ -2140,22 +2207,22 @@
         <v>39.3</v>
       </c>
       <c r="J10" t="n">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="K10" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L10" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M10" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="N10" t="n">
         <v>0.372</v>
       </c>
       <c r="O10" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="P10" t="n">
         <v>29.2</v>
@@ -2164,13 +2231,13 @@
         <v>0.783</v>
       </c>
       <c r="R10" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S10" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T10" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U10" t="n">
         <v>20.8</v>
@@ -2179,13 +2246,13 @@
         <v>14.9</v>
       </c>
       <c r="W10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X10" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z10" t="n">
         <v>22.2</v>
@@ -2194,13 +2261,13 @@
         <v>23.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.2</v>
+        <v>108.1</v>
       </c>
       <c r="AC10" t="n">
         <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2230,7 +2297,7 @@
         <v>17</v>
       </c>
       <c r="AN10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO10" t="n">
         <v>2</v>
@@ -2248,22 +2315,22 @@
         <v>15</v>
       </c>
       <c r="AT10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU10" t="n">
         <v>14</v>
       </c>
-      <c r="AU10" t="n">
-        <v>15</v>
-      </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2394,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>27</v>
@@ -2409,16 +2476,16 @@
         <v>6</v>
       </c>
       <c r="AM11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO11" t="n">
         <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
@@ -2433,13 +2500,13 @@
         <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
         <v>25</v>
       </c>
       <c r="F12" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" t="n">
-        <v>0.41</v>
+        <v>0.417</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
@@ -2507,37 +2574,37 @@
         <v>86.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L12" t="n">
         <v>7.9</v>
       </c>
       <c r="M12" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="N12" t="n">
         <v>0.373</v>
       </c>
       <c r="O12" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P12" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.806</v>
+        <v>0.805</v>
       </c>
       <c r="R12" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S12" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T12" t="n">
         <v>43.6</v>
       </c>
       <c r="U12" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V12" t="n">
         <v>15.1</v>
@@ -2546,19 +2613,19 @@
         <v>6.9</v>
       </c>
       <c r="X12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y12" t="n">
         <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="AA12" t="n">
         <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="AC12" t="n">
         <v>-1.9</v>
@@ -2567,10 +2634,10 @@
         <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
         <v>21</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
         <v>5</v>
@@ -2597,16 +2664,16 @@
         <v>12</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS12" t="n">
         <v>3</v>
@@ -2615,7 +2682,7 @@
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV12" t="n">
         <v>24</v>
@@ -2624,10 +2691,10 @@
         <v>21</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" t="n">
-        <v>0.254</v>
+        <v>0.259</v>
       </c>
       <c r="H13" t="n">
         <v>48.6</v>
@@ -2686,37 +2753,37 @@
         <v>35.9</v>
       </c>
       <c r="J13" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L13" t="n">
         <v>6.4</v>
       </c>
       <c r="M13" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N13" t="n">
         <v>0.347</v>
       </c>
       <c r="O13" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P13" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R13" t="n">
         <v>11.3</v>
       </c>
       <c r="S13" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T13" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U13" t="n">
         <v>21</v>
@@ -2725,28 +2792,28 @@
         <v>14.8</v>
       </c>
       <c r="W13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y13" t="n">
         <v>5.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.09999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.4</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
@@ -2758,10 +2825,10 @@
         <v>27</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
@@ -2770,13 +2837,13 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
@@ -2785,13 +2852,13 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>22</v>
@@ -2812,10 +2879,10 @@
         <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -2853,52 +2920,52 @@
         <v>58</v>
       </c>
       <c r="E14" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.828</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="J14" t="n">
-        <v>85.40000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.48</v>
       </c>
       <c r="L14" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.364</v>
+        <v>0.373</v>
       </c>
       <c r="O14" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="P14" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R14" t="n">
-        <v>12.7</v>
+        <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T14" t="n">
-        <v>44.5</v>
+        <v>44.4</v>
       </c>
       <c r="U14" t="n">
         <v>23.8</v>
@@ -2910,25 +2977,25 @@
         <v>8.4</v>
       </c>
       <c r="X14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>109</v>
+        <v>109.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
@@ -2949,7 +3016,7 @@
         <v>4</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2958,22 +3025,22 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AO14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2988,13 +3055,13 @@
         <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3134,7 +3201,7 @@
         <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM15" t="n">
         <v>27</v>
@@ -3143,10 +3210,10 @@
         <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ15" t="n">
         <v>23</v>
@@ -3155,10 +3222,10 @@
         <v>21</v>
       </c>
       <c r="AS15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" t="n">
         <v>30</v>
       </c>
       <c r="F16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>0.526</v>
+        <v>0.536</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3232,46 +3299,46 @@
         <v>36.4</v>
       </c>
       <c r="J16" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L16" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M16" t="n">
         <v>19.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O16" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="P16" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R16" t="n">
         <v>10</v>
       </c>
       <c r="S16" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T16" t="n">
         <v>39.1</v>
       </c>
       <c r="U16" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V16" t="n">
         <v>12.5</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X16" t="n">
         <v>5.5</v>
@@ -3283,16 +3350,16 @@
         <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3328,7 +3395,7 @@
         <v>28</v>
       </c>
       <c r="AP16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ16" t="n">
         <v>24</v>
@@ -3340,7 +3407,7 @@
         <v>23</v>
       </c>
       <c r="AT16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU16" t="n">
         <v>25</v>
@@ -3352,22 +3419,22 @@
         <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA16" t="n">
         <v>27</v>
       </c>
       <c r="BB16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -3414,16 +3481,16 @@
         <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>81.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.448</v>
+        <v>0.45</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M17" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="N17" t="n">
         <v>0.364</v>
@@ -3438,31 +3505,31 @@
         <v>0.779</v>
       </c>
       <c r="R17" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U17" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y17" t="n">
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="AA17" t="n">
         <v>23.2</v>
@@ -3471,13 +3538,13 @@
         <v>99.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
         <v>17</v>
@@ -3495,16 +3562,16 @@
         <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM17" t="n">
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
         <v>7</v>
@@ -3519,16 +3586,16 @@
         <v>6</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>15</v>
@@ -3549,7 +3616,7 @@
         <v>13</v>
       </c>
       <c r="BC17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -3578,25 +3645,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" t="n">
         <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" t="n">
-        <v>0.31</v>
+        <v>0.316</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="J18" t="n">
-        <v>83.5</v>
+        <v>83.8</v>
       </c>
       <c r="K18" t="n">
         <v>0.443</v>
@@ -3605,10 +3672,10 @@
         <v>6.2</v>
       </c>
       <c r="M18" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O18" t="n">
         <v>19.2</v>
@@ -3617,25 +3684,25 @@
         <v>24.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R18" t="n">
         <v>12.3</v>
       </c>
       <c r="S18" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U18" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V18" t="n">
         <v>14.5</v>
       </c>
       <c r="W18" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X18" t="n">
         <v>4.1</v>
@@ -3650,13 +3717,13 @@
         <v>20.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-4.3</v>
+        <v>-4</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,10 +3735,10 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI18" t="n">
         <v>10</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>5</v>
@@ -3689,19 +3756,19 @@
         <v>27</v>
       </c>
       <c r="AO18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
         <v>14</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT18" t="n">
         <v>11</v>
@@ -3716,7 +3783,7 @@
         <v>27</v>
       </c>
       <c r="AX18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
@@ -3728,7 +3795,7 @@
         <v>21</v>
       </c>
       <c r="BB18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3856,7 +3923,7 @@
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3865,13 +3932,13 @@
         <v>7</v>
       </c>
       <c r="AM19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP19" t="n">
         <v>15</v>
@@ -3880,10 +3947,10 @@
         <v>10</v>
       </c>
       <c r="AR19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" t="n">
         <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>0.614</v>
+        <v>0.607</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
       </c>
       <c r="I20" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>76.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="K20" t="n">
         <v>0.456</v>
@@ -3972,46 +4039,46 @@
         <v>19.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.378</v>
+        <v>0.382</v>
       </c>
       <c r="O20" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="P20" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.805</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R20" t="n">
         <v>9.5</v>
       </c>
       <c r="S20" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="T20" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="U20" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V20" t="n">
         <v>12.6</v>
       </c>
       <c r="W20" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X20" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y20" t="n">
         <v>3.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB20" t="n">
         <v>96.09999999999999</v>
@@ -4020,13 +4087,13 @@
         <v>2.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG20" t="n">
         <v>9</v>
@@ -4041,7 +4108,7 @@
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>9</v>
@@ -4050,43 +4117,43 @@
         <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP20" t="n">
         <v>22</v>
       </c>
       <c r="AQ20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR20" t="n">
         <v>28</v>
       </c>
       <c r="AS20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AU20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA20" t="n">
         <v>15</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" t="n">
         <v>24</v>
       </c>
       <c r="F21" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" t="n">
-        <v>0.414</v>
+        <v>0.421</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4142,19 +4209,19 @@
         <v>38.7</v>
       </c>
       <c r="J21" t="n">
-        <v>87.09999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="K21" t="n">
         <v>0.444</v>
       </c>
       <c r="L21" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="M21" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.363</v>
+        <v>0.362</v>
       </c>
       <c r="O21" t="n">
         <v>18</v>
@@ -4163,7 +4230,7 @@
         <v>22.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.794</v>
+        <v>0.793</v>
       </c>
       <c r="R21" t="n">
         <v>11.1</v>
@@ -4172,10 +4239,10 @@
         <v>31.7</v>
       </c>
       <c r="T21" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U21" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V21" t="n">
         <v>14.6</v>
@@ -4184,25 +4251,25 @@
         <v>7</v>
       </c>
       <c r="X21" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y21" t="n">
         <v>5.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="AA21" t="n">
         <v>19.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.1</v>
+        <v>-2</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="n">
         <v>24</v>
@@ -4244,13 +4311,13 @@
         <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
       </c>
       <c r="AT21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
@@ -4259,7 +4326,7 @@
         <v>17</v>
       </c>
       <c r="AW21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4277,7 +4344,7 @@
         <v>4</v>
       </c>
       <c r="BC21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
       </c>
       <c r="F22" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" t="n">
-        <v>0.224</v>
+        <v>0.228</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,19 +4391,19 @@
         <v>36.9</v>
       </c>
       <c r="J22" t="n">
-        <v>82.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L22" t="n">
         <v>4.2</v>
       </c>
       <c r="M22" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.369</v>
+        <v>0.367</v>
       </c>
       <c r="O22" t="n">
         <v>20.3</v>
@@ -4345,16 +4412,16 @@
         <v>26.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.778</v>
+        <v>0.776</v>
       </c>
       <c r="R22" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S22" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T22" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U22" t="n">
         <v>20.5</v>
@@ -4372,31 +4439,31 @@
         <v>5.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA22" t="n">
         <v>20.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>-6.2</v>
+        <v>-6.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
         <v>13</v>
@@ -4405,16 +4472,16 @@
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM22" t="n">
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AO22" t="n">
         <v>8</v>
@@ -4426,34 +4493,34 @@
         <v>12</v>
       </c>
       <c r="AR22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS22" t="n">
         <v>11</v>
       </c>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX22" t="n">
         <v>21</v>
       </c>
       <c r="AY22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" t="n">
         <v>42</v>
       </c>
       <c r="F23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>0.724</v>
+        <v>0.737</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4506,25 +4573,25 @@
         <v>36</v>
       </c>
       <c r="J23" t="n">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="K23" t="n">
         <v>0.46</v>
       </c>
       <c r="L23" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="M23" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.392</v>
+        <v>0.394</v>
       </c>
       <c r="O23" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="P23" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="Q23" t="n">
         <v>0.721</v>
@@ -4533,22 +4600,22 @@
         <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="T23" t="n">
-        <v>43</v>
+        <v>43.3</v>
       </c>
       <c r="U23" t="n">
         <v>19.2</v>
       </c>
       <c r="V23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W23" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y23" t="n">
         <v>3.8</v>
@@ -4557,16 +4624,16 @@
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.1</v>
+        <v>102.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4581,22 +4648,22 @@
         <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK23" t="n">
         <v>9</v>
       </c>
       <c r="AL23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO23" t="n">
         <v>10</v>
@@ -4608,13 +4675,13 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AU23" t="n">
         <v>29</v>
@@ -4623,7 +4690,7 @@
         <v>13</v>
       </c>
       <c r="AW23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX23" t="n">
         <v>9</v>
@@ -4632,7 +4699,7 @@
         <v>3</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -4670,25 +4737,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" t="n">
         <v>28</v>
       </c>
       <c r="G24" t="n">
-        <v>0.509</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J24" t="n">
-        <v>80.2</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>0.454</v>
@@ -4700,28 +4767,28 @@
         <v>13.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.316</v>
+        <v>0.317</v>
       </c>
       <c r="O24" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="P24" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.743</v>
+        <v>0.742</v>
       </c>
       <c r="R24" t="n">
         <v>12.9</v>
       </c>
       <c r="S24" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T24" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U24" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V24" t="n">
         <v>14.9</v>
@@ -4736,19 +4803,19 @@
         <v>4.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4760,19 +4827,19 @@
         <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>17</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK24" t="n">
         <v>15</v>
       </c>
       <c r="AL24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM24" t="n">
         <v>29</v>
@@ -4781,10 +4848,10 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP24" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AQ24" t="n">
         <v>27</v>
@@ -4799,10 +4866,10 @@
         <v>9</v>
       </c>
       <c r="AU24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV24" t="n">
         <v>21</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>22</v>
       </c>
       <c r="AW24" t="n">
         <v>5</v>
@@ -4817,10 +4884,10 @@
         <v>7</v>
       </c>
       <c r="BA24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -4852,61 +4919,61 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" t="n">
         <v>25</v>
       </c>
       <c r="G25" t="n">
-        <v>0.569</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>39.8</v>
+        <v>39.6</v>
       </c>
       <c r="J25" t="n">
-        <v>79.59999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.501</v>
+        <v>0.5</v>
       </c>
       <c r="L25" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M25" t="n">
         <v>16.8</v>
       </c>
       <c r="N25" t="n">
-        <v>0.384</v>
+        <v>0.386</v>
       </c>
       <c r="O25" t="n">
         <v>20.9</v>
       </c>
       <c r="P25" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R25" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S25" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T25" t="n">
         <v>41.6</v>
       </c>
       <c r="U25" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V25" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W25" t="n">
         <v>6.8</v>
@@ -4918,19 +4985,19 @@
         <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>107</v>
+        <v>106.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4948,19 +5015,19 @@
         <v>2</v>
       </c>
       <c r="AJ25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
         <v>4</v>
@@ -4978,7 +5045,7 @@
         <v>9</v>
       </c>
       <c r="AT25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU25" t="n">
         <v>4</v>
@@ -4987,7 +5054,7 @@
         <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -5037,58 +5104,58 @@
         <v>57</v>
       </c>
       <c r="E26" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" t="n">
-        <v>0.632</v>
+        <v>0.614</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J26" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.461</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.381</v>
+        <v>0.38</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P26" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R26" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="U26" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="V26" t="n">
         <v>13</v>
-      </c>
-      <c r="S26" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="T26" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="U26" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="V26" t="n">
-        <v>12.9</v>
       </c>
       <c r="W26" t="n">
         <v>6.8</v>
@@ -5097,43 +5164,43 @@
         <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
         <v>8</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5142,13 +5209,13 @@
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ26" t="n">
         <v>20</v>
@@ -5163,31 +5230,31 @@
         <v>15</v>
       </c>
       <c r="AU26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" t="n">
         <v>47</v>
       </c>
       <c r="G27" t="n">
-        <v>0.217</v>
+        <v>0.203</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
@@ -5237,22 +5304,22 @@
         <v>80.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L27" t="n">
         <v>6.6</v>
       </c>
       <c r="M27" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.359</v>
+        <v>0.356</v>
       </c>
       <c r="O27" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="P27" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="Q27" t="n">
         <v>0.803</v>
@@ -5261,43 +5328,43 @@
         <v>10</v>
       </c>
       <c r="S27" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T27" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="U27" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V27" t="n">
         <v>15.8</v>
       </c>
       <c r="W27" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X27" t="n">
         <v>4.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AB27" t="n">
         <v>99.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF27" t="n">
         <v>30</v>
@@ -5309,7 +5376,7 @@
         <v>6</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ27" t="n">
         <v>12</v>
@@ -5327,25 +5394,25 @@
         <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT27" t="n">
         <v>30</v>
       </c>
       <c r="AU27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV27" t="n">
         <v>26</v>
@@ -5354,19 +5421,19 @@
         <v>20</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
       </c>
       <c r="BA27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" t="n">
         <v>39</v>
       </c>
       <c r="F28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.696</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J28" t="n">
         <v>79.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L28" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M28" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="O28" t="n">
         <v>15.5</v>
@@ -5440,7 +5507,7 @@
         <v>0.771</v>
       </c>
       <c r="R28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S28" t="n">
         <v>32.2</v>
@@ -5455,7 +5522,7 @@
         <v>12.1</v>
       </c>
       <c r="W28" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X28" t="n">
         <v>4.3</v>
@@ -5464,19 +5531,19 @@
         <v>4.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5491,16 +5558,16 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ28" t="n">
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM28" t="n">
         <v>8</v>
@@ -5515,16 +5582,16 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS28" t="n">
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
@@ -5539,7 +5606,7 @@
         <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5548,10 +5615,10 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" t="n">
         <v>23</v>
       </c>
       <c r="F29" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" t="n">
-        <v>0.383</v>
+        <v>0.39</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J29" t="n">
-        <v>79.3</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K29" t="n">
         <v>0.458</v>
@@ -5613,16 +5680,16 @@
         <v>0.374</v>
       </c>
       <c r="O29" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="P29" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="Q29" t="n">
         <v>0.828</v>
       </c>
       <c r="R29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="S29" t="n">
         <v>30.5</v>
@@ -5631,7 +5698,7 @@
         <v>39.2</v>
       </c>
       <c r="U29" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V29" t="n">
         <v>13.2</v>
@@ -5640,28 +5707,28 @@
         <v>6.2</v>
       </c>
       <c r="X29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA29" t="n">
         <v>20.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.4</v>
+        <v>-3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
@@ -5676,7 +5743,7 @@
         <v>19</v>
       </c>
       <c r="AJ29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK29" t="n">
         <v>11</v>
@@ -5691,19 +5758,19 @@
         <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
       </c>
       <c r="AR29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT29" t="n">
         <v>27</v>
@@ -5718,19 +5785,19 @@
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
       </c>
       <c r="BA29" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB29" t="n">
         <v>22</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>21</v>
       </c>
       <c r="BC29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>3.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
         <v>10</v>
@@ -5861,7 +5928,7 @@
         <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
@@ -5894,19 +5961,19 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY30" t="n">
         <v>15</v>
       </c>
       <c r="AZ30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA30" t="n">
         <v>1</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
@@ -5944,58 +6011,58 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" t="n">
         <v>44</v>
       </c>
       <c r="G31" t="n">
-        <v>0.241</v>
+        <v>0.228</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J31" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L31" t="n">
         <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.323</v>
+        <v>0.324</v>
       </c>
       <c r="O31" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P31" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="Q31" t="n">
         <v>0.762</v>
       </c>
       <c r="R31" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="T31" t="n">
-        <v>40.2</v>
+        <v>39.9</v>
       </c>
       <c r="U31" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V31" t="n">
         <v>14</v>
@@ -6004,31 +6071,31 @@
         <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
         <v>19.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>94.90000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.3</v>
+        <v>-7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
         <v>28</v>
@@ -6058,13 +6125,13 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ31" t="n">
         <v>19</v>
       </c>
       <c r="AR31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS31" t="n">
         <v>30</v>
@@ -6079,16 +6146,16 @@
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>25</v>
       </c>
       <c r="AY31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-27-2008-09</t>
+          <t>2009-02-27</t>
         </is>
       </c>
     </row>
